--- a/testData/loginData.xlsx
+++ b/testData/loginData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stech\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stech\PycharmProjects\AttendancePortal\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -85,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -169,30 +169,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -203,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -212,8 +188,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -498,7 +472,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +497,7 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -534,7 +508,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -545,7 +519,7 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -556,7 +530,7 @@
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
